--- a/flows/RPAR_fund_flow_data.xlsx
+++ b/flows/RPAR_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1051"/>
+  <dimension ref="A1:B1074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10945,6 +10945,236 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>2024-02-13</t>
+        </is>
+      </c>
+      <c r="B1052" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>2024-02-14</t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B1056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B1057" t="n">
+        <v>-1.3879725</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1061" t="n">
+        <v>-7.0045123</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1069" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1074" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
